--- a/Document/Plan.xlsx
+++ b/Document/Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/embexinhtuoi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/embexinhtuoi/PTTKPM/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6430E466-A477-2D46-BDA5-4580A1BDCCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A397C7C5-3840-A748-8409-CE66EA85AFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25380" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -114,12 +114,6 @@
   </si>
   <si>
     <t>Project lead</t>
-  </si>
-  <si>
-    <t>Nuria Acevedo</t>
-  </si>
-  <si>
-    <t>Olivia Wilson</t>
   </si>
   <si>
     <t>Project start:</t>
@@ -1217,22 +1211,19 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1244,14 +1235,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1853,8 +1847,8 @@
   </sheetPr>
   <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A38" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A30" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1872,39 +1866,39 @@
     <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14"/>
       <c r="B1" s="117" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="131" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
+      <c r="I1" s="130" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="130">
+      <c r="Q1" s="129">
         <v>45581</v>
       </c>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="129"/>
-      <c r="Z1" s="129"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="118" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="97" t="s">
         <v>20</v>
@@ -1912,35 +1906,35 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
+      <c r="I2" s="130" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="128">
+      <c r="Q2" s="127">
         <v>1</v>
       </c>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
@@ -1966,7 +1960,7 @@
     </row>
     <row r="4" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="C4" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="26"/>
@@ -1992,7 +1986,7 @@
     <row r="5" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B5" s="96"/>
       <c r="C5" s="120" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="119"/>
       <c r="E5" s="23"/>
@@ -2020,7 +2014,7 @@
       <c r="A6" s="13"/>
       <c r="B6" s="25"/>
       <c r="C6" s="121" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
@@ -2029,102 +2023,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="135">
+      <c r="I7" s="124">
         <f>I8</f>
         <v>45579</v>
       </c>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133">
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122">
         <f>P8</f>
         <v>45586</v>
       </c>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
-      <c r="S7" s="133"/>
-      <c r="T7" s="133"/>
-      <c r="U7" s="133"/>
-      <c r="V7" s="133"/>
-      <c r="W7" s="133">
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="122"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="122">
         <f>W8</f>
         <v>45593</v>
       </c>
-      <c r="X7" s="133"/>
-      <c r="Y7" s="133"/>
-      <c r="Z7" s="133"/>
-      <c r="AA7" s="133"/>
-      <c r="AB7" s="133"/>
-      <c r="AC7" s="133"/>
-      <c r="AD7" s="133">
+      <c r="X7" s="122"/>
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="122"/>
+      <c r="AB7" s="122"/>
+      <c r="AC7" s="122"/>
+      <c r="AD7" s="122">
         <f>AD8</f>
         <v>45600</v>
       </c>
-      <c r="AE7" s="133"/>
-      <c r="AF7" s="133"/>
-      <c r="AG7" s="133"/>
-      <c r="AH7" s="133"/>
-      <c r="AI7" s="133"/>
-      <c r="AJ7" s="133"/>
-      <c r="AK7" s="133">
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="122"/>
+      <c r="AG7" s="122"/>
+      <c r="AH7" s="122"/>
+      <c r="AI7" s="122"/>
+      <c r="AJ7" s="122"/>
+      <c r="AK7" s="122">
         <f>AK8</f>
         <v>45607</v>
       </c>
-      <c r="AL7" s="133"/>
-      <c r="AM7" s="133"/>
-      <c r="AN7" s="133"/>
-      <c r="AO7" s="133"/>
-      <c r="AP7" s="133"/>
-      <c r="AQ7" s="133"/>
-      <c r="AR7" s="133">
+      <c r="AL7" s="122"/>
+      <c r="AM7" s="122"/>
+      <c r="AN7" s="122"/>
+      <c r="AO7" s="122"/>
+      <c r="AP7" s="122"/>
+      <c r="AQ7" s="122"/>
+      <c r="AR7" s="122">
         <f>AR8</f>
         <v>45614</v>
       </c>
-      <c r="AS7" s="133"/>
-      <c r="AT7" s="133"/>
-      <c r="AU7" s="133"/>
-      <c r="AV7" s="133"/>
-      <c r="AW7" s="133"/>
-      <c r="AX7" s="133"/>
-      <c r="AY7" s="133">
+      <c r="AS7" s="122"/>
+      <c r="AT7" s="122"/>
+      <c r="AU7" s="122"/>
+      <c r="AV7" s="122"/>
+      <c r="AW7" s="122"/>
+      <c r="AX7" s="122"/>
+      <c r="AY7" s="122">
         <f>AY8</f>
         <v>45621</v>
       </c>
-      <c r="AZ7" s="133"/>
-      <c r="BA7" s="133"/>
-      <c r="BB7" s="133"/>
-      <c r="BC7" s="133"/>
-      <c r="BD7" s="133"/>
-      <c r="BE7" s="133"/>
-      <c r="BF7" s="133">
+      <c r="AZ7" s="122"/>
+      <c r="BA7" s="122"/>
+      <c r="BB7" s="122"/>
+      <c r="BC7" s="122"/>
+      <c r="BD7" s="122"/>
+      <c r="BE7" s="122"/>
+      <c r="BF7" s="122">
         <f>BF8</f>
         <v>45628</v>
       </c>
-      <c r="BG7" s="133"/>
-      <c r="BH7" s="133"/>
-      <c r="BI7" s="133"/>
-      <c r="BJ7" s="133"/>
-      <c r="BK7" s="133"/>
-      <c r="BL7" s="134"/>
+      <c r="BG7" s="122"/>
+      <c r="BH7" s="122"/>
+      <c r="BI7" s="122"/>
+      <c r="BJ7" s="122"/>
+      <c r="BK7" s="122"/>
+      <c r="BL7" s="123"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="122"/>
-      <c r="B8" s="123" t="s">
+      <c r="A8" s="132"/>
+      <c r="B8" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="125" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="127" t="s">
+      <c r="C8" s="135" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="127" t="s">
+      <c r="E8" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="127" t="s">
+      <c r="F8" s="125" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -2353,8 +2347,8 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="122"/>
-      <c r="B9" s="124"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="126"/>
       <c r="D9" s="126"/>
       <c r="E9" s="126"/>
@@ -2657,7 +2651,7 @@
     <row r="11" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="42"/>
@@ -2728,10 +2722,10 @@
     <row r="12" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="49">
         <v>1</v>
@@ -2807,10 +2801,10 @@
     <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="52" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="54">
         <v>1</v>
@@ -2886,10 +2880,10 @@
     <row r="14" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="54">
         <v>1</v>
@@ -2965,10 +2959,10 @@
     <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="54">
         <v>1</v>
@@ -3110,7 +3104,7 @@
     <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="58"/>
       <c r="D17" s="59"/>
@@ -3125,10 +3119,10 @@
     <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="64">
         <v>1</v>
@@ -3204,10 +3198,10 @@
     <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="64">
         <v>1</v>
@@ -3283,10 +3277,10 @@
     <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="64">
         <v>1</v>
@@ -3362,10 +3356,10 @@
     <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D21" s="64">
         <v>1</v>
@@ -3441,10 +3435,10 @@
     <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D22" s="64">
         <v>1</v>
@@ -3520,7 +3514,7 @@
     <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="108" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="109"/>
       <c r="D23" s="110"/>
@@ -3535,10 +3529,10 @@
     <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="114" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="115">
         <v>1</v>
@@ -3614,10 +3608,10 @@
     <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="113" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="114" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="115">
         <v>1</v>
@@ -3693,10 +3687,10 @@
     <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="113" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="114" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -3772,10 +3766,10 @@
     <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="113" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="114" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="115">
         <v>1</v>
@@ -3851,13 +3845,13 @@
     <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="113" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="114" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="115" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28" s="116">
         <v>45654</v>
@@ -3930,7 +3924,7 @@
     <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" s="67"/>
       <c r="D29" s="68"/>
@@ -4001,10 +3995,10 @@
     <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D30" s="74">
         <v>1</v>
@@ -4082,10 +4076,10 @@
     <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="74">
         <v>1</v>
@@ -4163,10 +4157,10 @@
     <row r="32" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="73" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="74">
         <v>1</v>
@@ -4244,10 +4238,10 @@
     <row r="33" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" s="73" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D33" s="74">
         <v>1</v>
@@ -4325,10 +4319,10 @@
     <row r="34" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D34" s="74">
         <v>1</v>
@@ -4406,7 +4400,7 @@
     <row r="35" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="77"/>
       <c r="D35" s="78"/>
@@ -4477,10 +4471,10 @@
     <row r="36" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="82" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" s="83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D36" s="84">
         <v>1</v>
@@ -4489,7 +4483,7 @@
         <v>45662</v>
       </c>
       <c r="F36" s="85" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="5" t="e">
@@ -4556,10 +4550,10 @@
     <row r="37" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" s="83" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D37" s="84">
         <v>1</v>
@@ -4568,7 +4562,7 @@
         <v>45672</v>
       </c>
       <c r="F37" s="85" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="5" t="e">
@@ -4635,10 +4629,10 @@
     <row r="38" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="82" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" s="83" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D38" s="84">
         <v>1</v>
@@ -4647,7 +4641,7 @@
         <v>45672</v>
       </c>
       <c r="F38" s="85" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="5" t="e">
@@ -4995,6 +4989,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="P7:V7"/>
@@ -5003,16 +5007,6 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="23">
@@ -5252,6 +5246,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5563,26 +5577,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
@@ -5592,6 +5586,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09426A3-87E9-4865-8A6C-3456B026AE03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5612,25 +5625,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>